--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Rspo3</t>
   </si>
   <si>
     <t>Lrp6</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H2">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3621638765654</v>
+        <v>13.4154945</v>
       </c>
       <c r="N2">
-        <v>13.3621638765654</v>
+        <v>26.830989</v>
       </c>
       <c r="O2">
-        <v>0.1410464322105739</v>
+        <v>0.1359286037219744</v>
       </c>
       <c r="P2">
-        <v>0.1410464322105739</v>
+        <v>0.1008397935132719</v>
       </c>
       <c r="Q2">
-        <v>27.47703963534527</v>
+        <v>0.7034146231185</v>
       </c>
       <c r="R2">
-        <v>27.47703963534527</v>
+        <v>2.813658492474</v>
       </c>
       <c r="S2">
-        <v>0.1410464322105739</v>
+        <v>0.002737622778165739</v>
       </c>
       <c r="T2">
-        <v>0.1410464322105739</v>
+        <v>0.00136310356931253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H3">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.1772244929559</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N3">
-        <v>19.1772244929559</v>
+        <v>60.953383</v>
       </c>
       <c r="O3">
-        <v>0.202428223408971</v>
+        <v>0.2058641531581443</v>
       </c>
       <c r="P3">
-        <v>0.202428223408971</v>
+        <v>0.2290831156337689</v>
       </c>
       <c r="Q3">
-        <v>39.43473245474863</v>
+        <v>1.065322910279667</v>
       </c>
       <c r="R3">
-        <v>39.43473245474863</v>
+        <v>6.391937461677999</v>
       </c>
       <c r="S3">
-        <v>0.202428223408971</v>
+        <v>0.004146135393594334</v>
       </c>
       <c r="T3">
-        <v>0.202428223408971</v>
+        <v>0.003096634787818432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H4">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3218408157458</v>
+        <v>18.218472</v>
       </c>
       <c r="N4">
-        <v>16.3218408157458</v>
+        <v>54.655416</v>
       </c>
       <c r="O4">
-        <v>0.1722877698130438</v>
+        <v>0.1845933790146823</v>
       </c>
       <c r="P4">
-        <v>0.1722877698130438</v>
+        <v>0.2054132579243344</v>
       </c>
       <c r="Q4">
-        <v>33.56311680943996</v>
+        <v>0.9552491423759999</v>
       </c>
       <c r="R4">
-        <v>33.56311680943996</v>
+        <v>5.731494854256</v>
       </c>
       <c r="S4">
-        <v>0.1722877698130438</v>
+        <v>0.003717738763231928</v>
       </c>
       <c r="T4">
-        <v>0.1722877698130438</v>
+        <v>0.002776677096467117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H5">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9909297057391</v>
+        <v>20.09656133333333</v>
       </c>
       <c r="N5">
-        <v>19.9909297057391</v>
+        <v>60.289684</v>
       </c>
       <c r="O5">
-        <v>0.2110174173594733</v>
+        <v>0.2036225740059764</v>
       </c>
       <c r="P5">
-        <v>0.2110174173594733</v>
+        <v>0.2265887137272657</v>
       </c>
       <c r="Q5">
-        <v>41.10798018540571</v>
+        <v>1.053723000390667</v>
       </c>
       <c r="R5">
-        <v>41.10798018540571</v>
+        <v>6.322338002344</v>
       </c>
       <c r="S5">
-        <v>0.2110174173594733</v>
+        <v>0.004100989648122041</v>
       </c>
       <c r="T5">
-        <v>0.2110174173594733</v>
+        <v>0.003062916668972751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H6">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.76743481974472</v>
+        <v>10.05227</v>
       </c>
       <c r="N6">
-        <v>9.76743481974472</v>
+        <v>30.15681</v>
       </c>
       <c r="O6">
-        <v>0.1031017016331068</v>
+        <v>0.1018517077649498</v>
       </c>
       <c r="P6">
-        <v>0.1031017016331068</v>
+        <v>0.1133393365939278</v>
       </c>
       <c r="Q6">
-        <v>20.08508473305458</v>
+        <v>0.52707067291</v>
       </c>
       <c r="R6">
-        <v>20.08508473305458</v>
+        <v>3.16242403746</v>
       </c>
       <c r="S6">
-        <v>0.1031017016331068</v>
+        <v>0.0020513089043622</v>
       </c>
       <c r="T6">
-        <v>0.1031017016331068</v>
+        <v>0.001532066348731305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,793 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H7">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.1163288301077</v>
+        <v>16.594562</v>
       </c>
       <c r="N7">
-        <v>16.1163288301077</v>
+        <v>33.189124</v>
       </c>
       <c r="O7">
-        <v>0.1701184555748311</v>
+        <v>0.1681395823342728</v>
       </c>
       <c r="P7">
-        <v>0.1701184555748311</v>
+        <v>0.1247357826074312</v>
       </c>
       <c r="Q7">
-        <v>33.14051602209143</v>
+        <v>0.870102669346</v>
       </c>
       <c r="R7">
-        <v>33.14051602209143</v>
+        <v>3.480410677384</v>
       </c>
       <c r="S7">
-        <v>0.1701184555748311</v>
+        <v>0.003386356792504638</v>
       </c>
       <c r="T7">
-        <v>0.1701184555748311</v>
+        <v>0.001686117995380497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.598354</v>
+      </c>
+      <c r="I8">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J8">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13.4154945</v>
+      </c>
+      <c r="N8">
+        <v>26.830989</v>
+      </c>
+      <c r="O8">
+        <v>0.1359286037219744</v>
+      </c>
+      <c r="P8">
+        <v>0.1008397935132719</v>
+      </c>
+      <c r="Q8">
+        <v>33.978558765351</v>
+      </c>
+      <c r="R8">
+        <v>203.871352592106</v>
+      </c>
+      <c r="S8">
+        <v>0.1322413174080367</v>
+      </c>
+      <c r="T8">
+        <v>0.09876741230046097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.598354</v>
+      </c>
+      <c r="I9">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J9">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>20.31779433333333</v>
+      </c>
+      <c r="N9">
+        <v>60.953383</v>
+      </c>
+      <c r="O9">
+        <v>0.2058641531581443</v>
+      </c>
+      <c r="P9">
+        <v>0.2290831156337689</v>
+      </c>
+      <c r="Q9">
+        <v>51.46059794795355</v>
+      </c>
+      <c r="R9">
+        <v>463.145381531582</v>
+      </c>
+      <c r="S9">
+        <v>0.2002797503636964</v>
+      </c>
+      <c r="T9">
+        <v>0.2243751771456844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H10">
+        <v>7.598354</v>
+      </c>
+      <c r="I10">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J10">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.218472</v>
+      </c>
+      <c r="N10">
+        <v>54.655416</v>
+      </c>
+      <c r="O10">
+        <v>0.1845933790146823</v>
+      </c>
+      <c r="P10">
+        <v>0.2054132579243344</v>
+      </c>
+      <c r="Q10">
+        <v>46.143466531696</v>
+      </c>
+      <c r="R10">
+        <v>415.291198785264</v>
+      </c>
+      <c r="S10">
+        <v>0.1795859808553034</v>
+      </c>
+      <c r="T10">
+        <v>0.2011917639907053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H11">
+        <v>7.598354</v>
+      </c>
+      <c r="I11">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J11">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.09656133333333</v>
+      </c>
+      <c r="N11">
+        <v>60.289684</v>
+      </c>
+      <c r="O11">
+        <v>0.2036225740059764</v>
+      </c>
+      <c r="P11">
+        <v>0.2265887137272657</v>
+      </c>
+      <c r="Q11">
+        <v>50.90026239779289</v>
+      </c>
+      <c r="R11">
+        <v>458.1023615801361</v>
+      </c>
+      <c r="S11">
+        <v>0.1980989777224693</v>
+      </c>
+      <c r="T11">
+        <v>0.2219320382522055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H12">
+        <v>7.598354</v>
+      </c>
+      <c r="I12">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J12">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.05227</v>
+      </c>
+      <c r="N12">
+        <v>30.15681</v>
+      </c>
+      <c r="O12">
+        <v>0.1018517077649498</v>
+      </c>
+      <c r="P12">
+        <v>0.1133393365939278</v>
+      </c>
+      <c r="Q12">
+        <v>25.46023532119333</v>
+      </c>
+      <c r="R12">
+        <v>229.14211789074</v>
+      </c>
+      <c r="S12">
+        <v>0.09908881314373351</v>
+      </c>
+      <c r="T12">
+        <v>0.1110100744678724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H13">
+        <v>7.598354</v>
+      </c>
+      <c r="I13">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J13">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.594562</v>
+      </c>
+      <c r="N13">
+        <v>33.189124</v>
+      </c>
+      <c r="O13">
+        <v>0.1681395823342728</v>
+      </c>
+      <c r="P13">
+        <v>0.1247357826074312</v>
+      </c>
+      <c r="Q13">
+        <v>42.03045218364933</v>
+      </c>
+      <c r="R13">
+        <v>252.182713101896</v>
+      </c>
+      <c r="S13">
+        <v>0.1635785203959007</v>
+      </c>
+      <c r="T13">
+        <v>0.1221723095633607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.054566</v>
+      </c>
+      <c r="I14">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J14">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.4154945</v>
+      </c>
+      <c r="N14">
+        <v>26.830989</v>
+      </c>
+      <c r="O14">
+        <v>0.1359286037219744</v>
+      </c>
+      <c r="P14">
+        <v>0.1008397935132719</v>
+      </c>
+      <c r="Q14">
+        <v>0.244009957629</v>
+      </c>
+      <c r="R14">
+        <v>1.464059745774</v>
+      </c>
+      <c r="S14">
+        <v>0.0009496635357719486</v>
+      </c>
+      <c r="T14">
+        <v>0.0007092776434984411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.054566</v>
+      </c>
+      <c r="I15">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J15">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>20.31779433333333</v>
+      </c>
+      <c r="N15">
+        <v>60.953383</v>
+      </c>
+      <c r="O15">
+        <v>0.2058641531581443</v>
+      </c>
+      <c r="P15">
+        <v>0.2290831156337689</v>
+      </c>
+      <c r="Q15">
+        <v>0.3695535885308889</v>
+      </c>
+      <c r="R15">
+        <v>3.325982296778</v>
+      </c>
+      <c r="S15">
+        <v>0.001438267400853587</v>
+      </c>
+      <c r="T15">
+        <v>0.001611303700266059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.054566</v>
+      </c>
+      <c r="I16">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J16">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.218472</v>
+      </c>
+      <c r="N16">
+        <v>54.655416</v>
+      </c>
+      <c r="O16">
+        <v>0.1845933790146823</v>
+      </c>
+      <c r="P16">
+        <v>0.2054132579243344</v>
+      </c>
+      <c r="Q16">
+        <v>0.331369714384</v>
+      </c>
+      <c r="R16">
+        <v>2.982327429456</v>
+      </c>
+      <c r="S16">
+        <v>0.001289659396146914</v>
+      </c>
+      <c r="T16">
+        <v>0.001444816837161947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.054566</v>
+      </c>
+      <c r="I17">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J17">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>20.09656133333333</v>
+      </c>
+      <c r="N17">
+        <v>60.289684</v>
+      </c>
+      <c r="O17">
+        <v>0.2036225740059764</v>
+      </c>
+      <c r="P17">
+        <v>0.2265887137272657</v>
+      </c>
+      <c r="Q17">
+        <v>0.3655296552382223</v>
+      </c>
+      <c r="R17">
+        <v>3.289766897144</v>
+      </c>
+      <c r="S17">
+        <v>0.001422606635385014</v>
+      </c>
+      <c r="T17">
+        <v>0.001593758806087456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.054566</v>
+      </c>
+      <c r="I18">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J18">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.05227</v>
+      </c>
+      <c r="N18">
+        <v>30.15681</v>
+      </c>
+      <c r="O18">
+        <v>0.1018517077649498</v>
+      </c>
+      <c r="P18">
+        <v>0.1133393365939278</v>
+      </c>
+      <c r="Q18">
+        <v>0.1828373882733333</v>
+      </c>
+      <c r="R18">
+        <v>1.64553649446</v>
+      </c>
+      <c r="S18">
+        <v>0.0007115857168540665</v>
+      </c>
+      <c r="T18">
+        <v>0.0007971957773241316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.054566</v>
+      </c>
+      <c r="I19">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J19">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.594562</v>
+      </c>
+      <c r="N19">
+        <v>33.189124</v>
+      </c>
+      <c r="O19">
+        <v>0.1681395823342728</v>
+      </c>
+      <c r="P19">
+        <v>0.1247357826074312</v>
+      </c>
+      <c r="Q19">
+        <v>0.3018329566973333</v>
+      </c>
+      <c r="R19">
+        <v>1.810997740184</v>
+      </c>
+      <c r="S19">
+        <v>0.001174705145867476</v>
+      </c>
+      <c r="T19">
+        <v>0.0008773550486900633</v>
       </c>
     </row>
   </sheetData>
